--- a/ALZHEIMER.xlsx
+++ b/ALZHEIMER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/713174f9c92da389/Desktop/PROJECT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{99D1598C-74AD-452B-A6AD-143CFB7E9AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F54CBCBE-94FA-4E54-A00B-2BF1D73DAD28}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="8_{99D1598C-74AD-452B-A6AD-143CFB7E9AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AE1999C-1A83-4A2C-A1F0-19975644D95B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{9D24AB8F-C20E-435A-BEC2-27705F8B162F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t xml:space="preserve">STRING_ID </t>
   </si>
@@ -82,39 +82,9 @@
     <t xml:space="preserve"> IMAGE </t>
   </si>
   <si>
-    <t>A2M</t>
-  </si>
-  <si>
-    <t>Alpha-2-Macroglobulin</t>
-  </si>
-  <si>
     <t>DOID:10652</t>
   </si>
   <si>
-    <t>A2MD</t>
-  </si>
-  <si>
-    <t>CPAMD5</t>
-  </si>
-  <si>
-    <t>FWP007</t>
-  </si>
-  <si>
-    <t>S863-7</t>
-  </si>
-  <si>
-    <t>The protein encoded by this gene is a protease inhibitor and cytokine transporter. It uses a bait-and-trap mechanism to inhibit a broad spectrum of proteases, including trypsin, thrombin and collagenase. It can also inhibit inflammatory cytokines, and it thus disrupts inflammatory cascades. Mutations in this gene are a cause of alpha-2-macroglobulin deficiency. This gene is implicated in Alzheimer's disease (AD) due to its ability to mediate the clearance and degradation of A-beta, the major component of beta-amyloid deposits. A related pseudogene, which is also located on the p arm of chromosome 12, has been identified. [provided by RefSeq, Nov 2016]</t>
-  </si>
-  <si>
-    <t>12p13.31</t>
-  </si>
-  <si>
-    <t>NC_000012.12</t>
-  </si>
-  <si>
-    <t>Mainly in lungs, urinary bladder and 21 other tiisues. BioProject: PRJEB4337</t>
-  </si>
-  <si>
     <t>APOE</t>
   </si>
   <si>
@@ -136,23 +106,116 @@
     <t>LDLCQ5</t>
   </si>
   <si>
-    <t>The protein encoded by this gene is a major apoprotein of the chylomicron. It binds to a specific liver and peripheral cell receptor, and is essential for the normal catabolism of triglyceride-rich lipoprotein constituents. This gene maps to chromosome 19 in a cluster with the related apolipoprotein C1 and C2 genes. Mutations in this gene result in familial dysbetalipoproteinemia, or type III hyperlipoproteinemia (HLP III), in which increased plasma cholesterol and triglycerides are the consequence of impaired clearance of chylomicron and VLDL remnants. [provided by RefSeq, Jun 2016]</t>
-  </si>
-  <si>
     <t>19q13.32</t>
   </si>
   <si>
     <t>NC_000019.10</t>
   </si>
   <si>
-    <t>Biased expression in liver , kidneyand 7 other tissues. BioProject: PRJEB4337.</t>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>MAPT</t>
+  </si>
+  <si>
+    <t>The ε4 allele of apolipoprotein E (APOE) is a major genetic risk factor for Alzheimer’s disease (AD). While its exact role in AD onset and progression remains unclear, evidence suggests that apoE4 influences Aβ aggregation and clearance, contributing to AD pathogenesis. Other mechanisms, such as its impact on neurotoxicity, tau phosphorylation, synaptic plasticity, and neuroinflammation, are also considered.</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3044446/</t>
+  </si>
+  <si>
+    <t>PAPER_LINK_1</t>
+  </si>
+  <si>
+    <t>PAPER_LINK_2</t>
+  </si>
+  <si>
+    <t>APP, a transmembrane protein abundant in the brain, undergoes complex processing by proteases like the γ-secretase complex, which also affects other key molecules. The sequential cleavage of APP to produce neurotoxic Aβ peptides is a pivotal event in Alzheimer’s disease development, as suggested by genetic, biochemical, and behavioral studies.</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3174086/</t>
+  </si>
+  <si>
+    <t>Amyloid Beta Precursor Protein</t>
+  </si>
+  <si>
+    <t>APPI,CVAP</t>
+  </si>
+  <si>
+    <t>ABETA</t>
+  </si>
+  <si>
+    <t>PN-II, preA4</t>
+  </si>
+  <si>
+    <t>AAA, AD1, CTFgamma</t>
+  </si>
+  <si>
+    <t>PN2,ABPP, alpha-sAPP</t>
+  </si>
+  <si>
+    <t>21q21.3</t>
+  </si>
+  <si>
+    <t>NC_000021.9</t>
+  </si>
+  <si>
+    <t>Ubiquitous expression in brain, kidney and 25 other tissues. BioProject: PRJEB4337</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/gene/351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/gene/348 </t>
+  </si>
+  <si>
+    <t>Microtubule Associated Protein tau</t>
+  </si>
+  <si>
+    <t>TAU, MSTD, PPND</t>
+  </si>
+  <si>
+    <t>DDPAC, MAPTL, MTBT1</t>
+  </si>
+  <si>
+    <t>MTBT2, tau-40, FTDP-17</t>
+  </si>
+  <si>
+    <t>PPP1R103</t>
+  </si>
+  <si>
+    <t>Tau-PHF6</t>
+  </si>
+  <si>
+    <t>17q21.31</t>
+  </si>
+  <si>
+    <t>NC_000017.11</t>
+  </si>
+  <si>
+    <t>Biased expression in liver , kidney and 7 other tissues. BioProject: PRJEB4337.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biased expression in brain (RPKM 70.2), kidney (RPKM 12.0) and 2 other tissues </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/gene/4137 </t>
+  </si>
+  <si>
+    <t>The MAPT gene encodes the tau protein, which plays a crucial role in the stability and assembly of microtubules in neurons.  In Alzheimer’s disease, the MAPT gene's role centers on the tau protein, whose abnormal behavior leads to the formation of NFTs(neurofibrillary tangles), contributing significantly to neurodegeneration and the cognitive decline characteristic of the disease.</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0023683722026009</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,22 +224,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -196,21 +267,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -224,6 +301,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,38 +604,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B388AE-F8EB-4186-83A4-C2C9A13CCEDF}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection sqref="A1:O3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.26953125" style="3" customWidth="1"/>
     <col min="10" max="10" width="23.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.1796875" customWidth="1"/>
+    <col min="17" max="17" width="49.54296875" customWidth="1"/>
+    <col min="18" max="18" width="45.26953125" customWidth="1"/>
+    <col min="19" max="19" width="16.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -572,7 +657,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -584,7 +669,7 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -593,75 +678,93 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2">
+      <c r="J3">
         <v>19</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3">
-        <v>12</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>23</v>
@@ -669,14 +772,75 @@
       <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>25</v>
+      <c r="M3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="63.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4">
+        <v>17</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="Q3" r:id="rId1" xr:uid="{563C8FA1-D1A3-4A89-891F-3E879FC4994C}"/>
+    <hyperlink ref="P2" r:id="rId2" xr:uid="{D6C536DD-4A47-4EB0-944C-5A6DBA4C4F73}"/>
+    <hyperlink ref="P3" r:id="rId3" xr:uid="{2EF22D0F-7ADD-40DF-9D48-E577981BBF27}"/>
+    <hyperlink ref="Q2" r:id="rId4" xr:uid="{A85E4EE3-795B-413A-AB4D-076FFC3E484D}"/>
+    <hyperlink ref="P4" r:id="rId5" xr:uid="{CCF71E13-F6B0-4167-8E8B-AC95BFB17A47}"/>
+    <hyperlink ref="Q4" r:id="rId6" xr:uid="{CE2FC39B-14C4-44A0-8310-98FC379EF5D6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
